--- a/verif_results/no_exact/datos_verificacion_relu_1como2.xlsx
+++ b/verif_results/no_exact/datos_verificacion_relu_1como2.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.06793308258056641</v>
+        <v>0.07772445678710938</v>
       </c>
       <c r="F1" t="n">
         <v>0</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="J1" t="n">
-        <v>0.06763505935668945</v>
+        <v>0.07747530937194824</v>
       </c>
       <c r="K1" t="n">
         <v>0</v>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2897741794586182</v>
+        <v>0.3257894515991211</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.2921833992004395</v>
+        <v>0.3410403728485107</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2831909656524658</v>
+        <v>0.3447465896606445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.3998019695281982</v>
+        <v>0.3787577152252197</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2403702735900879</v>
+        <v>0.2621030807495117</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.2502501010894775</v>
+        <v>0.2585482597351074</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.02963519096374512</v>
+        <v>0.02971148490905762</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.02962493896484375</v>
+        <v>0.02976655960083008</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1479477882385254</v>
+        <v>0.1463279724121094</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.1034262180328369</v>
+        <v>0.1033616065979004</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7732348442077637</v>
+        <v>1.376503705978394</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.2517631053924561</v>
+        <v>0.3246352672576904</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27.74773502349854</v>
+        <v>29.42050218582153</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>28.6384425163269</v>
+        <v>29.67957353591919</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9962174892425537</v>
+        <v>0.9305160045623779</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1.625861167907715</v>
+        <v>1.377231121063232</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.370185613632202</v>
+        <v>2.336413860321045</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2.52278733253479</v>
+        <v>2.542840957641602</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.38806939125061</v>
+        <v>1.210144758224487</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1.138304233551025</v>
+        <v>0.9620471000671387</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6.469303846359253</v>
+        <v>6.598535776138306</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>5.701128005981445</v>
+        <v>5.460621118545532</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>

--- a/verif_results/no_exact/datos_verificacion_relu_1como2.xlsx
+++ b/verif_results/no_exact/datos_verificacion_relu_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,38 +437,44 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.07772445678710938</v>
+        <v>0.07772040367126465</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J1" t="n">
-        <v>0.07747530937194824</v>
-      </c>
       <c r="K1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
+        <v>0.07745075225830078</v>
+      </c>
+      <c r="L1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -490,38 +496,44 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3257894515991211</v>
+        <v>0.3102283477783203</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>0.3410403728485107</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>0.3105413913726807</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -543,38 +555,44 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3447465896606445</v>
+        <v>0.345026969909668</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>0.3787577152252197</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+        <v>0.3340871334075928</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -596,38 +614,44 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2621030807495117</v>
+        <v>0.4291462898254395</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>0.2585482597351074</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0.4297823905944824</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -649,38 +673,44 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.02971148490905762</v>
+        <v>0.02854561805725098</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>0.02976655960083008</v>
-      </c>
       <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+        <v>0.02837109565734863</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -702,38 +732,44 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1463279724121094</v>
+        <v>0.2070415019989014</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>0.1033616065979004</v>
-      </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>0.09210896492004395</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -755,38 +791,44 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.376503705978394</v>
+        <v>0.5374400615692139</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>0.3246352672576904</v>
-      </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+        <v>0.4278407096862793</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -808,38 +850,44 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.42050218582153</v>
+        <v>24.42347311973572</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>69</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>29.67957353591919</v>
-      </c>
       <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+        <v>21.84947037696838</v>
+      </c>
+      <c r="L8" t="n">
+        <v>69</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -861,38 +909,44 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9305160045623779</v>
+        <v>0.9659872055053711</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>1.377231121063232</v>
-      </c>
       <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+        <v>1.265377044677734</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -914,38 +968,44 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.336413860321045</v>
+        <v>2.544753551483154</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>2.542840957641602</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>1.986198663711548</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -967,38 +1027,44 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.210144758224487</v>
+        <v>1.294555902481079</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>0.9620471000671387</v>
-      </c>
       <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+        <v>1.106869220733643</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1020,38 +1086,44 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6.598535776138306</v>
+        <v>4.375550508499146</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
+        <v>34</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>5.460621118545532</v>
-      </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>4.4544997215271</v>
+      </c>
+      <c r="L12" t="n">
+        <v>21</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>

--- a/verif_results/no_exact/datos_verificacion_relu_1como2.xlsx
+++ b/verif_results/no_exact/datos_verificacion_relu_1como2.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.07772040367126465</v>
+        <v>0.07048988342285156</v>
       </c>
       <c r="F1" t="n">
         <v>3</v>
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>0.07745075225830078</v>
+        <v>0.06727719306945801</v>
       </c>
       <c r="L1" t="n">
         <v>3</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3102283477783203</v>
+        <v>0.2222199440002441</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.3105413913726807</v>
+        <v>0.2194185256958008</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.345026969909668</v>
+        <v>0.1069746017456055</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.3340871334075928</v>
+        <v>0.319455623626709</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4291462898254395</v>
+        <v>0.4321043491363525</v>
       </c>
       <c r="F4" t="n">
         <v>7</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.4297823905944824</v>
+        <v>0.6326699256896973</v>
       </c>
       <c r="L4" t="n">
         <v>7</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.02854561805725098</v>
+        <v>0.02882528305053711</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.02837109565734863</v>
+        <v>0.0280916690826416</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2070415019989014</v>
+        <v>0.2072045803070068</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.09210896492004395</v>
+        <v>0.09268593788146973</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5374400615692139</v>
+        <v>1.031891345977783</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.4278407096862793</v>
+        <v>0.7879698276519775</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>24.42347311973572</v>
+        <v>26.00463461875916</v>
       </c>
       <c r="F8" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>21.84947037696838</v>
+        <v>25.9640212059021</v>
       </c>
       <c r="L8" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9659872055053711</v>
+        <v>0.7018225193023682</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.265377044677734</v>
+        <v>1.519436597824097</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.544753551483154</v>
+        <v>3.174571990966797</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1.986198663711548</v>
+        <v>1.572654724121094</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.294555902481079</v>
+        <v>2.128965854644775</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1.106869220733643</v>
+        <v>1.434850454330444</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.375550508499146</v>
+        <v>5.571636915206909</v>
       </c>
       <c r="F12" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>4.4544997215271</v>
+        <v>2.601202964782715</v>
       </c>
       <c r="L12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
